--- a/medicine/Pharmacie/Faculté_de_pharmacie_de_l'Université_Paris-Saclay/Faculté_de_pharmacie_de_l'Université_Paris-Saclay.xlsx
+++ b/medicine/Pharmacie/Faculté_de_pharmacie_de_l'Université_Paris-Saclay/Faculté_de_pharmacie_de_l'Université_Paris-Saclay.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Facult%C3%A9_de_pharmacie_de_l%27Universit%C3%A9_Paris-Saclay</t>
+          <t>Faculté_de_pharmacie_de_l'Université_Paris-Saclay</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La faculté de pharmacie de l'université Paris-Saclay a été créée en 1972 au sein de l'ancienne université Paris-Sud. Elle accueille environ 3 500 étudiants sur le campus de Paris-Saclay, à Orsay, dans le département de l'Essonne, dont près de 1 000 en première année.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Facult%C3%A9_de_pharmacie_de_l%27Universit%C3%A9_Paris-Saclay</t>
+          <t>Faculté_de_pharmacie_de_l'Université_Paris-Saclay</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En septembre 2022, la faculté de pharmacie déménage sur le campus universitaire Paris-Saclay à Orsay, dans le département de l'Essonne, après cinquante ans dans les locaux de Châtenay-Malabry[1],[2],[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En septembre 2022, la faculté de pharmacie déménage sur le campus universitaire Paris-Saclay à Orsay, dans le département de l'Essonne, après cinquante ans dans les locaux de Châtenay-Malabry.
 </t>
         </is>
       </c>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Facult%C3%A9_de_pharmacie_de_l%27Universit%C3%A9_Paris-Saclay</t>
+          <t>Faculté_de_pharmacie_de_l'Université_Paris-Saclay</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,9 +556,11 @@
           <t>Organisation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Marc Pallardy en est le doyen depuis 2015[4]. On forme dans cette UFR des pharmaciens des filières officine, industrie/recherche et pharmacie hospitalière/biologie médicale/recherche. Initialement située à Châtenay-Malabry, la faculté a déménagé en septembre 2022, dans le cadre de l'opération campus sur le  campus universitaire Paris-Saclay, au sein du Pôle Biologie – Pharmacie – Chimie de l'université Paris-Saclay[5].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Marc Pallardy en est le doyen depuis 2015. On forme dans cette UFR des pharmaciens des filières officine, industrie/recherche et pharmacie hospitalière/biologie médicale/recherche. Initialement située à Châtenay-Malabry, la faculté a déménagé en septembre 2022, dans le cadre de l'opération campus sur le  campus universitaire Paris-Saclay, au sein du Pôle Biologie – Pharmacie – Chimie de l'université Paris-Saclay.
 </t>
         </is>
       </c>
